--- a/Assets/excel_config/attribute.xlsx
+++ b/Assets/excel_config/attribute.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\塔牌\tower_card_demo\Assets\excel_config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workplace\unity\projects\My project\Assets\excel_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDEF82E-B0B0-4629-BA65-CCE8EEE0CCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="5400" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6017" yWindow="5400" windowWidth="21600" windowHeight="11383"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,7 +131,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -506,21 +505,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -534,7 +533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -548,7 +547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
@@ -562,7 +561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -574,7 +573,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -586,7 +585,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -598,7 +597,7 @@
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -610,7 +609,7 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <v>5</v>
       </c>
@@ -622,7 +621,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="3">
         <v>6</v>
       </c>
@@ -634,7 +633,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="4">
         <v>101</v>
@@ -649,7 +648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="4">
         <v>201</v>
@@ -665,7 +664,7 @@
       </c>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="4">
         <v>301</v>
@@ -681,7 +680,7 @@
       </c>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -689,7 +688,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -697,7 +696,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="14.6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
